--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crichardson10\Documents\GitHub\COMP1004-Coursework\02-Sprint_Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF0B2A-3821-49D6-AD6D-8F4A80E2E327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418C884-DF2F-4845-AF3E-8B6D3020774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Due Date</t>
   </si>
@@ -85,6 +96,12 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Project structure fits uses Flexboxes to meet RWD requirements</t>
   </si>
 </sst>
 </file>
@@ -120,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,9 +147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6241B93-FAB7-4E2D-A04F-0B6711C874C5}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,15 +474,17 @@
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="106.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="201.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -487,8 +503,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45224</v>
       </c>
@@ -510,7 +529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45231</v>
       </c>
@@ -532,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45245</v>
       </c>
@@ -551,7 +570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45245</v>
       </c>
@@ -570,7 +589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45245</v>
       </c>
@@ -592,7 +611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45245</v>
       </c>
@@ -610,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45245</v>
       </c>
@@ -631,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45245</v>
       </c>
@@ -642,6 +661,9 @@
         <f t="shared" si="0"/>
         <v>45259</v>
       </c>
+      <c r="E9" s="2">
+        <v>45248</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
@@ -649,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45245</v>
       </c>
@@ -660,14 +682,20 @@
         <f t="shared" si="0"/>
         <v>45259</v>
       </c>
+      <c r="E10" s="2">
+        <v>45248</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -678,7 +706,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -689,7 +717,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -700,7 +728,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -711,7 +739,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -722,7 +750,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C418C884-DF2F-4845-AF3E-8B6D3020774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D45B9F-77AD-4E7C-BD67-B275397282D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Due Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Project structure fits uses Flexboxes to meet RWD requirements</t>
+  </si>
+  <si>
+    <t>Implent an "Ultrawide" layout, displaying all three sections in a single row using flexboxes. Create relevant wireframe diagrams.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +480,7 @@
     <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="106.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="121.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="201.140625" style="3" customWidth="1"/>
@@ -696,15 +699,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45252</v>
+      </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>45259</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45252</v>
+      </c>
       <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D45B9F-77AD-4E7C-BD67-B275397282D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE51B3-D567-48A2-8DFC-AFBA56944C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +625,9 @@
         <f t="shared" si="0"/>
         <v>45259</v>
       </c>
+      <c r="E7" s="2">
+        <v>45249</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE51B3-D567-48A2-8DFC-AFBA56944C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC0E2E4-E81B-4AB3-96AC-528B7407448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +565,9 @@
         <f t="shared" si="0"/>
         <v>45252</v>
       </c>
+      <c r="E4" s="2">
+        <v>45248</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
@@ -584,6 +587,9 @@
         <f t="shared" si="0"/>
         <v>45252</v>
       </c>
+      <c r="E5" s="2">
+        <v>45248</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
@@ -604,7 +610,7 @@
         <v>45252</v>
       </c>
       <c r="E6" s="2">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
@@ -703,17 +709,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45252</v>
+        <v>45245</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>45259</v>
+        <v>45252</v>
       </c>
       <c r="E11" s="2">
-        <v>45252</v>
+        <v>45245</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC0E2E4-E81B-4AB3-96AC-528B7407448F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629AC415-417C-46A3-9A90-B386D0025426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Due Date</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>Implent an "Ultrawide" layout, displaying all three sections in a single row using flexboxes. Create relevant wireframe diagrams.</t>
+  </si>
+  <si>
+    <t>Implement a prototype of the View Page JavaScript to take test JSON data and display as a table</t>
+  </si>
+  <si>
+    <t>"Prettify" the above table; CSS</t>
+  </si>
+  <si>
+    <t>Update view.js to read and parse data from the real JSON database</t>
+  </si>
+  <si>
+    <t>Implement the HTML form to add new items to a JSON database</t>
+  </si>
+  <si>
+    <t>Investigate SQL / PostgreSQL as a relational database as opposed to JSON; check this fits CW limits?</t>
+  </si>
+  <si>
+    <t>Create "Interim Video"</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -469,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,72 +751,126 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45252</v>
+      </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45259</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45252</v>
+      </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45266</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45259</v>
+      </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45273</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45259</v>
+      </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45273</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45273</v>
+      </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45308</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45273</v>
+      </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45308</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -806,7 +881,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -817,7 +892,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -828,7 +903,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>2</v>
       </c>
@@ -839,7 +914,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -850,7 +925,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -861,7 +936,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -872,7 +947,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>2</v>
       </c>
@@ -883,7 +958,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>2</v>
       </c>
@@ -894,7 +969,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -905,7 +980,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -916,7 +991,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629AC415-417C-46A3-9A90-B386D0025426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777E77-05E1-4796-894A-28ED32F5149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,9 @@
         <f t="shared" si="0"/>
         <v>45259</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>45252</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>23</v>

--- a/02-Sprint_Tracking/Sprints.xlsx
+++ b/02-Sprint_Tracking/Sprints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\COMP1004-Coursework\02-Sprint_Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crichardson10\Documents\GitHub\COMP1004-Coursework\02-Sprint_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B777E77-05E1-4796-894A-28ED32F5149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030109B1-8858-4CC3-8C36-3E89C6C238A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{743FDD4B-2014-4ECF-9DD7-51E90CC264F7}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Due Date</t>
   </si>
@@ -110,12 +99,6 @@
     <t>Implement a prototype of the View Page JavaScript to take test JSON data and display as a table</t>
   </si>
   <si>
-    <t>"Prettify" the above table; CSS</t>
-  </si>
-  <si>
-    <t>Update view.js to read and parse data from the real JSON database</t>
-  </si>
-  <si>
     <t>Implement the HTML form to add new items to a JSON database</t>
   </si>
   <si>
@@ -126,6 +109,15 @@
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Update view.js to read and parse data from the real JSON database; File IO</t>
+  </si>
+  <si>
+    <t>Add CSS to the View Section Table</t>
+  </si>
+  <si>
+    <t>Implement prototype to sum the total value</t>
   </si>
 </sst>
 </file>
@@ -486,11 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6241B93-FAB7-4E2D-A04F-0B6711C874C5}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C21" si="0">A3+(B3*7)</f>
+        <f t="shared" ref="C3:C22" si="0">A3+(B3*7)</f>
         <v>45245</v>
       </c>
       <c r="E3" s="2">
@@ -777,39 +769,41 @@
         <v>45252</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>45266</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>45259</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45252</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45259</v>
+        <v>45252</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>45273</v>
+        <v>45266</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,7 +820,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -834,22 +828,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
         <v>45273</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>45308</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,31 +851,40 @@
         <v>45273</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>45308</v>
+        <f>A17+(B17*7)</f>
+        <v>45301</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45273</v>
+      </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>45308</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -921,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:C28" si="1">A22+(B22*7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E22" s="2"/>
@@ -932,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C23:C29" si="1">A23+(B23*7)</f>
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
@@ -994,9 +997,98 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:C38" si="2">A30+(B30*7)</f>
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
